--- a/Gradient Descent.xlsx
+++ b/Gradient Descent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-4430" yWindow="250" windowWidth="26820" windowHeight="13340"/>
+    <workbookView xWindow="-4430" yWindow="250" windowWidth="26820" windowHeight="13340" firstSheet="3" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="34">
   <si>
     <t>Min-Max(X)</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Input         House Size (x)</t>
+  </si>
+  <si>
+    <t>Made by Pieter Leffers</t>
   </si>
 </sst>
 </file>
@@ -733,11 +736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="650300416"/>
-        <c:axId val="672063488"/>
+        <c:axId val="607219200"/>
+        <c:axId val="638837312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="650300416"/>
+        <c:axId val="607219200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672063488"/>
+        <c:crossAx val="638837312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -755,7 +758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="672063488"/>
+        <c:axId val="638837312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="650300416"/>
+        <c:crossAx val="607219200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1022,11 +1025,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="679885312"/>
-        <c:axId val="679847040"/>
+        <c:axId val="639203840"/>
+        <c:axId val="641926848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="679885312"/>
+        <c:axId val="639203840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="679847040"/>
+        <c:crossAx val="641926848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1044,7 +1047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="679847040"/>
+        <c:axId val="641926848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="679885312"/>
+        <c:crossAx val="639203840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1235,11 +1238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="680023552"/>
-        <c:axId val="679848768"/>
+        <c:axId val="642418176"/>
+        <c:axId val="641928576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="680023552"/>
+        <c:axId val="642418176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="679848768"/>
+        <c:crossAx val="641928576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1257,7 +1260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="679848768"/>
+        <c:axId val="641928576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680023552"/>
+        <c:crossAx val="642418176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1524,11 +1527,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="680024576"/>
-        <c:axId val="679850496"/>
+        <c:axId val="642419200"/>
+        <c:axId val="641930304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="680024576"/>
+        <c:axId val="642419200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1541,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="679850496"/>
+        <c:crossAx val="641930304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1546,7 +1549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="679850496"/>
+        <c:axId val="641930304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +1560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680024576"/>
+        <c:crossAx val="642419200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1737,11 +1740,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="680130560"/>
-        <c:axId val="679852224"/>
+        <c:axId val="642988032"/>
+        <c:axId val="641932032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="680130560"/>
+        <c:axId val="642988032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,7 +1754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="679852224"/>
+        <c:crossAx val="641932032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1759,7 +1762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="679852224"/>
+        <c:axId val="641932032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1769,7 +1772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680130560"/>
+        <c:crossAx val="642988032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2026,11 +2029,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="680132096"/>
-        <c:axId val="680673280"/>
+        <c:axId val="642953216"/>
+        <c:axId val="642712128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="680132096"/>
+        <c:axId val="642953216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2040,7 +2043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680673280"/>
+        <c:crossAx val="642712128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2048,7 +2051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="680673280"/>
+        <c:axId val="642712128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680132096"/>
+        <c:crossAx val="642953216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2239,11 +2242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="680753152"/>
-        <c:axId val="680675008"/>
+        <c:axId val="642955264"/>
+        <c:axId val="642713856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="680753152"/>
+        <c:axId val="642955264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,7 +2256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680675008"/>
+        <c:crossAx val="642713856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2261,7 +2264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="680675008"/>
+        <c:axId val="642713856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +2274,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680753152"/>
+        <c:crossAx val="642955264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2528,11 +2531,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="680855040"/>
-        <c:axId val="680676736"/>
+        <c:axId val="643126784"/>
+        <c:axId val="642715584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="680855040"/>
+        <c:axId val="643126784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2542,7 +2545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680676736"/>
+        <c:crossAx val="642715584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2550,7 +2553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="680676736"/>
+        <c:axId val="642715584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2561,7 +2564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680855040"/>
+        <c:crossAx val="643126784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2741,11 +2744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="681059840"/>
-        <c:axId val="680678464"/>
+        <c:axId val="643646976"/>
+        <c:axId val="642717312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="681059840"/>
+        <c:axId val="643646976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2755,7 +2758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680678464"/>
+        <c:crossAx val="642717312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2763,7 +2766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="680678464"/>
+        <c:axId val="642717312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2773,7 +2776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="681059840"/>
+        <c:crossAx val="643646976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3030,11 +3033,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="681060864"/>
-        <c:axId val="680680192"/>
+        <c:axId val="643648000"/>
+        <c:axId val="642719040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="681060864"/>
+        <c:axId val="643648000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3044,7 +3047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680680192"/>
+        <c:crossAx val="642719040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3052,7 +3055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="680680192"/>
+        <c:axId val="642719040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,7 +3066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="681060864"/>
+        <c:crossAx val="643648000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3243,11 +3246,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="680525312"/>
-        <c:axId val="680624704"/>
+        <c:axId val="642019328"/>
+        <c:axId val="643843200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="680525312"/>
+        <c:axId val="642019328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3257,7 +3260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680624704"/>
+        <c:crossAx val="643843200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3265,7 +3268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="680624704"/>
+        <c:axId val="643843200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,7 +3278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680525312"/>
+        <c:crossAx val="642019328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3551,11 +3554,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="672122368"/>
-        <c:axId val="672065792"/>
+        <c:axId val="639652352"/>
+        <c:axId val="638839616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="672122368"/>
+        <c:axId val="639652352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3565,7 +3568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672065792"/>
+        <c:crossAx val="638839616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3573,7 +3576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="672065792"/>
+        <c:axId val="638839616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3583,7 +3586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672122368"/>
+        <c:crossAx val="639652352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3841,11 +3844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="681259520"/>
-        <c:axId val="680626432"/>
+        <c:axId val="642020352"/>
+        <c:axId val="643844928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="681259520"/>
+        <c:axId val="642020352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3855,7 +3858,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680626432"/>
+        <c:crossAx val="643844928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3863,7 +3866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="680626432"/>
+        <c:axId val="643844928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3874,7 +3877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="681259520"/>
+        <c:crossAx val="642020352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4054,11 +4057,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="681459712"/>
-        <c:axId val="680628160"/>
+        <c:axId val="644030464"/>
+        <c:axId val="643846656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="681459712"/>
+        <c:axId val="644030464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4068,7 +4071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680628160"/>
+        <c:crossAx val="643846656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4076,7 +4079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="680628160"/>
+        <c:axId val="643846656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4086,7 +4089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="681459712"/>
+        <c:crossAx val="644030464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4343,11 +4346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="681461248"/>
-        <c:axId val="680629888"/>
+        <c:axId val="644032000"/>
+        <c:axId val="643848384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="681461248"/>
+        <c:axId val="644032000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4357,7 +4360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680629888"/>
+        <c:crossAx val="643848384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4365,7 +4368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="680629888"/>
+        <c:axId val="643848384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4376,7 +4379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="681461248"/>
+        <c:crossAx val="644032000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4556,11 +4559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="681705472"/>
-        <c:axId val="680631616"/>
+        <c:axId val="644444160"/>
+        <c:axId val="644521984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="681705472"/>
+        <c:axId val="644444160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4570,7 +4573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680631616"/>
+        <c:crossAx val="644521984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4578,7 +4581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="680631616"/>
+        <c:axId val="644521984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4588,7 +4591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="681705472"/>
+        <c:crossAx val="644444160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4845,11 +4848,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="681709056"/>
-        <c:axId val="681772160"/>
+        <c:axId val="644447744"/>
+        <c:axId val="644523712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="681709056"/>
+        <c:axId val="644447744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4859,7 +4862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="681772160"/>
+        <c:crossAx val="644523712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4867,7 +4870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="681772160"/>
+        <c:axId val="644523712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4878,7 +4881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="681709056"/>
+        <c:crossAx val="644447744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5058,11 +5061,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="682731008"/>
-        <c:axId val="681773888"/>
+        <c:axId val="644933120"/>
+        <c:axId val="644525440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="682731008"/>
+        <c:axId val="644933120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5072,7 +5075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="681773888"/>
+        <c:crossAx val="644525440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5080,7 +5083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="681773888"/>
+        <c:axId val="644525440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5090,7 +5093,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682731008"/>
+        <c:crossAx val="644933120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5347,11 +5350,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="682732032"/>
-        <c:axId val="681775616"/>
+        <c:axId val="644934144"/>
+        <c:axId val="644527168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="682732032"/>
+        <c:axId val="644934144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5361,7 +5364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="681775616"/>
+        <c:crossAx val="644527168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5369,7 +5372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="681775616"/>
+        <c:axId val="644527168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5380,7 +5383,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682732032"/>
+        <c:crossAx val="644934144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5560,11 +5563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="682167808"/>
-        <c:axId val="681777344"/>
+        <c:axId val="644771328"/>
+        <c:axId val="644528896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="682167808"/>
+        <c:axId val="644771328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5574,7 +5577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="681777344"/>
+        <c:crossAx val="644528896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5582,7 +5585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="681777344"/>
+        <c:axId val="644528896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5592,7 +5595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682167808"/>
+        <c:crossAx val="644771328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5849,11 +5852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="682373632"/>
-        <c:axId val="682426368"/>
+        <c:axId val="645034496"/>
+        <c:axId val="645071424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="682373632"/>
+        <c:axId val="645034496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5863,7 +5866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682426368"/>
+        <c:crossAx val="645071424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5871,7 +5874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="682426368"/>
+        <c:axId val="645071424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5882,7 +5885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682373632"/>
+        <c:crossAx val="645034496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6062,11 +6065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="682827776"/>
-        <c:axId val="682428096"/>
+        <c:axId val="645799936"/>
+        <c:axId val="645073152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="682827776"/>
+        <c:axId val="645799936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6076,7 +6079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682428096"/>
+        <c:crossAx val="645073152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6084,7 +6087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="682428096"/>
+        <c:axId val="645073152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6094,7 +6097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682827776"/>
+        <c:crossAx val="645799936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6274,11 +6277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="672285184"/>
-        <c:axId val="672068672"/>
+        <c:axId val="640012288"/>
+        <c:axId val="638842496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="672285184"/>
+        <c:axId val="640012288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6288,7 +6291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672068672"/>
+        <c:crossAx val="638842496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6296,7 +6299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="672068672"/>
+        <c:axId val="638842496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6306,7 +6309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672285184"/>
+        <c:crossAx val="640012288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6611,11 +6614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="682829312"/>
-        <c:axId val="682429824"/>
+        <c:axId val="645801472"/>
+        <c:axId val="645074880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="682829312"/>
+        <c:axId val="645801472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6625,7 +6628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682429824"/>
+        <c:crossAx val="645074880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6633,7 +6636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="682429824"/>
+        <c:axId val="645074880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6644,7 +6647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682829312"/>
+        <c:crossAx val="645801472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6824,11 +6827,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="683369984"/>
-        <c:axId val="682431552"/>
+        <c:axId val="645789184"/>
+        <c:axId val="645076608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="683369984"/>
+        <c:axId val="645789184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6838,7 +6841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682431552"/>
+        <c:crossAx val="645076608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6846,7 +6849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="682431552"/>
+        <c:axId val="645076608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6856,7 +6859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683369984"/>
+        <c:crossAx val="645789184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7161,11 +7164,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="683241472"/>
-        <c:axId val="682433280"/>
+        <c:axId val="644784128"/>
+        <c:axId val="645078336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="683241472"/>
+        <c:axId val="644784128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7175,7 +7178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682433280"/>
+        <c:crossAx val="645078336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7183,7 +7186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="682433280"/>
+        <c:axId val="645078336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7194,7 +7197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683241472"/>
+        <c:crossAx val="644784128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7374,11 +7377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="683479040"/>
-        <c:axId val="683000384"/>
+        <c:axId val="645984256"/>
+        <c:axId val="646169728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="683479040"/>
+        <c:axId val="645984256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7388,7 +7391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683000384"/>
+        <c:crossAx val="646169728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7396,7 +7399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="683000384"/>
+        <c:axId val="646169728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7406,7 +7409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683479040"/>
+        <c:crossAx val="645984256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7711,11 +7714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="683480576"/>
-        <c:axId val="683003264"/>
+        <c:axId val="645985792"/>
+        <c:axId val="646172608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="683480576"/>
+        <c:axId val="645985792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7725,7 +7728,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683003264"/>
+        <c:crossAx val="646172608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7733,7 +7736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="683003264"/>
+        <c:axId val="646172608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7744,7 +7747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683480576"/>
+        <c:crossAx val="645985792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7924,11 +7927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="684138496"/>
-        <c:axId val="683004992"/>
+        <c:axId val="646836224"/>
+        <c:axId val="646174336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="684138496"/>
+        <c:axId val="646836224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7938,7 +7941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683004992"/>
+        <c:crossAx val="646174336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7946,7 +7949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="683004992"/>
+        <c:axId val="646174336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7956,7 +7959,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684138496"/>
+        <c:crossAx val="646836224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8261,11 +8264,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="684142080"/>
-        <c:axId val="683006720"/>
+        <c:axId val="646839808"/>
+        <c:axId val="646176064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="684142080"/>
+        <c:axId val="646839808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8275,7 +8278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683006720"/>
+        <c:crossAx val="646176064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8283,7 +8286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="683006720"/>
+        <c:axId val="646176064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8294,7 +8297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684142080"/>
+        <c:crossAx val="646839808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8474,11 +8477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201721344"/>
-        <c:axId val="684302912"/>
+        <c:axId val="646604288"/>
+        <c:axId val="646341760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201721344"/>
+        <c:axId val="646604288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8488,7 +8491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684302912"/>
+        <c:crossAx val="646341760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8496,7 +8499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="684302912"/>
+        <c:axId val="646341760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8506,7 +8509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201721344"/>
+        <c:crossAx val="646604288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8811,11 +8814,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201722368"/>
-        <c:axId val="684304640"/>
+        <c:axId val="646605312"/>
+        <c:axId val="646343488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201722368"/>
+        <c:axId val="646605312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8825,7 +8828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684304640"/>
+        <c:crossAx val="646343488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8833,7 +8836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="684304640"/>
+        <c:axId val="646343488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8844,7 +8847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201722368"/>
+        <c:crossAx val="646605312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9024,11 +9027,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="684478464"/>
-        <c:axId val="684306368"/>
+        <c:axId val="646774272"/>
+        <c:axId val="646345216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="684478464"/>
+        <c:axId val="646774272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9038,7 +9041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684306368"/>
+        <c:crossAx val="646345216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9046,7 +9049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="684306368"/>
+        <c:axId val="646345216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9056,7 +9059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684478464"/>
+        <c:crossAx val="646774272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9313,11 +9316,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="672286208"/>
-        <c:axId val="672070400"/>
+        <c:axId val="640013824"/>
+        <c:axId val="638844224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="672286208"/>
+        <c:axId val="640013824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9327,7 +9330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672070400"/>
+        <c:crossAx val="638844224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9335,7 +9338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="672070400"/>
+        <c:axId val="638844224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9346,7 +9349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672286208"/>
+        <c:crossAx val="640013824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9651,11 +9654,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="684479488"/>
-        <c:axId val="684308096"/>
+        <c:axId val="646910464"/>
+        <c:axId val="646346944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="684479488"/>
+        <c:axId val="646910464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9665,7 +9668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684308096"/>
+        <c:crossAx val="646346944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9673,7 +9676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="684308096"/>
+        <c:axId val="646346944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9684,7 +9687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684479488"/>
+        <c:crossAx val="646910464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9864,11 +9867,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="684481536"/>
-        <c:axId val="684309824"/>
+        <c:axId val="646913024"/>
+        <c:axId val="647110656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="684481536"/>
+        <c:axId val="646913024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9878,7 +9881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684309824"/>
+        <c:crossAx val="647110656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9886,7 +9889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="684309824"/>
+        <c:axId val="647110656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9896,7 +9899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684481536"/>
+        <c:crossAx val="646913024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10201,11 +10204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="684713472"/>
-        <c:axId val="685122688"/>
+        <c:axId val="647378432"/>
+        <c:axId val="647112384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="684713472"/>
+        <c:axId val="647378432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10215,7 +10218,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="685122688"/>
+        <c:crossAx val="647112384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10223,7 +10226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="685122688"/>
+        <c:axId val="647112384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10235,7 +10238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684713472"/>
+        <c:crossAx val="647378432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10415,11 +10418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="677932544"/>
-        <c:axId val="673309248"/>
+        <c:axId val="640595968"/>
+        <c:axId val="640427136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="677932544"/>
+        <c:axId val="640595968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10429,7 +10432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673309248"/>
+        <c:crossAx val="640427136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10437,7 +10440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="673309248"/>
+        <c:axId val="640427136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10447,7 +10450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677932544"/>
+        <c:crossAx val="640595968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10704,11 +10707,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="678060544"/>
-        <c:axId val="673310976"/>
+        <c:axId val="640597504"/>
+        <c:axId val="640428864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="678060544"/>
+        <c:axId val="640597504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10718,7 +10721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673310976"/>
+        <c:crossAx val="640428864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10726,7 +10729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="673310976"/>
+        <c:axId val="640428864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10737,7 +10740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="678060544"/>
+        <c:crossAx val="640597504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10917,11 +10920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="679624704"/>
-        <c:axId val="673312704"/>
+        <c:axId val="639086592"/>
+        <c:axId val="640430592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="679624704"/>
+        <c:axId val="639086592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10931,7 +10934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673312704"/>
+        <c:crossAx val="640430592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10939,7 +10942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="673312704"/>
+        <c:axId val="640430592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10949,7 +10952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="679624704"/>
+        <c:crossAx val="639086592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11206,11 +11209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="679626240"/>
-        <c:axId val="673314432"/>
+        <c:axId val="639088128"/>
+        <c:axId val="640432320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="679626240"/>
+        <c:axId val="639088128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11220,7 +11223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673314432"/>
+        <c:crossAx val="640432320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11228,7 +11231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="673314432"/>
+        <c:axId val="640432320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11239,7 +11242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="679626240"/>
+        <c:crossAx val="639088128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11419,11 +11422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="679884288"/>
-        <c:axId val="673316160"/>
+        <c:axId val="639202816"/>
+        <c:axId val="641925120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="679884288"/>
+        <c:axId val="639202816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11433,7 +11436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673316160"/>
+        <c:crossAx val="641925120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11441,7 +11444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="673316160"/>
+        <c:axId val="641925120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11451,7 +11454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="679884288"/>
+        <c:crossAx val="639202816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32763,9 +32766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -32784,6 +32785,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -33558,9 +33562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -33575,6 +33577,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -34371,9 +34376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -34388,6 +34391,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -35184,9 +35190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -35201,6 +35205,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -35997,9 +36004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -36014,6 +36019,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -36810,9 +36818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -36827,6 +36833,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -37623,9 +37632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -37640,6 +37647,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -38436,9 +38446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -38453,6 +38461,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -39249,9 +39260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -39266,6 +39275,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -40062,9 +40074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -40079,6 +40089,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -40875,9 +40888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -40892,6 +40903,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -41688,9 +41702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -41706,6 +41718,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -42514,9 +42529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -42531,6 +42544,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -43327,9 +43343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -43348,6 +43362,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -44144,9 +44161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -44161,6 +44176,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -44957,9 +44975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -44974,6 +44990,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -45770,9 +45789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -45787,6 +45804,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -46583,9 +46603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -46600,6 +46618,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -47396,9 +47417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -47413,6 +47432,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -48209,9 +48231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -48226,6 +48246,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
@@ -49022,8 +49045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -49039,6 +49062,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
